--- a/data/processed/stock_trend_2025-03-09.xlsx
+++ b/data/processed/stock_trend_2025-03-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,199 +490,23 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>205.02</v>
+        <v>388.49</v>
       </c>
       <c r="C3" t="n">
-        <v>203.8</v>
+        <v>388.61</v>
       </c>
       <c r="D3" t="n">
-        <v>208.36</v>
+        <v>401.02</v>
       </c>
       <c r="E3" t="n">
-        <v>200.7</v>
+        <v>396.89</v>
       </c>
       <c r="F3" t="n">
-        <v>199.25</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>CSCO</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>63.48</v>
-      </c>
-      <c r="C4" t="n">
-        <v>63.26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>63.96</v>
-      </c>
-      <c r="E4" t="n">
-        <v>63.41</v>
-      </c>
-      <c r="F4" t="n">
-        <v>63.94</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>GOOGL</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>167.01</v>
-      </c>
-      <c r="C5" t="n">
-        <v>170.92</v>
-      </c>
-      <c r="D5" t="n">
-        <v>173.02</v>
-      </c>
-      <c r="E5" t="n">
-        <v>172.35</v>
-      </c>
-      <c r="F5" t="n">
-        <v>173.86</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>IBM</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>250.19</v>
-      </c>
-      <c r="C6" t="n">
-        <v>253.21</v>
-      </c>
-      <c r="D6" t="n">
-        <v>251.35</v>
-      </c>
-      <c r="E6" t="n">
-        <v>248.69</v>
-      </c>
-      <c r="F6" t="n">
-        <v>261.54</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>INTC</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>22.74</v>
-      </c>
-      <c r="C7" t="n">
-        <v>21.33</v>
-      </c>
-      <c r="D7" t="n">
-        <v>20.81</v>
-      </c>
-      <c r="E7" t="n">
-        <v>20.75</v>
-      </c>
-      <c r="F7" t="n">
-        <v>20.64</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>META</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>655.05</v>
-      </c>
-      <c r="C8" t="n">
-        <v>640</v>
-      </c>
-      <c r="D8" t="n">
-        <v>656.47</v>
-      </c>
-      <c r="E8" t="n">
-        <v>627.9299999999999</v>
-      </c>
-      <c r="F8" t="n">
-        <v>625.66</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>MSFT</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>388.49</v>
-      </c>
-      <c r="C9" t="n">
-        <v>388.61</v>
-      </c>
-      <c r="D9" t="n">
-        <v>401.02</v>
-      </c>
-      <c r="E9" t="n">
-        <v>396.89</v>
-      </c>
-      <c r="F9" t="n">
         <v>393.31</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>NVDA</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>114.06</v>
-      </c>
-      <c r="C10" t="n">
-        <v>115.99</v>
-      </c>
-      <c r="D10" t="n">
-        <v>117.3</v>
-      </c>
-      <c r="E10" t="n">
-        <v>110.57</v>
-      </c>
-      <c r="F10" t="n">
-        <v>112.69</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>TSLA</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>284.65</v>
-      </c>
-      <c r="C11" t="n">
-        <v>272.04</v>
-      </c>
-      <c r="D11" t="n">
-        <v>279.1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>263.45</v>
-      </c>
-      <c r="F11" t="n">
-        <v>262.67</v>
       </c>
     </row>
   </sheetData>
